--- a/biology/Botanique/Impératoire/Impératoire.xlsx
+++ b/biology/Botanique/Impératoire/Impératoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Imp%C3%A9ratoire</t>
+          <t>Impératoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peucedanum ostruthium
 Le Benjoin ou l’Impératoire (Peucedanum ostruthium) est une espèce de plantes de la famille des Apiaceae (Ombellifères).
-Elle est aussi appelée peucédan impératoire, benjoin français, ostruche, autruche, maître des maléfices ou eau fraîche[1].
+Elle est aussi appelée peucédan impératoire, benjoin français, ostruche, autruche, maître des maléfices ou eau fraîche.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Imp%C3%A9ratoire</t>
+          <t>Impératoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de juin à août[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de juin à août.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Imp%C3%A9ratoire</t>
+          <t>Impératoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'impératoire est une plante d'altitude qui croît entre 1 400 m et 2 800 m dans les montagnes du centre et du sud de l'Europe, dans les prairies, les rocailles et au bord des ruisseaux[3]. En France, elle pousse dans tous les massifs, sauf le Jura.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'impératoire est une plante d'altitude qui croît entre 1 400 m et 2 800 m dans les montagnes du centre et du sud de l'Europe, dans les prairies, les rocailles et au bord des ruisseaux. En France, elle pousse dans tous les massifs, sauf le Jura.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imp%C3%A9ratoire</t>
+          <t>Impératoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,14 +591,16 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'impératoire possède diverses propriétés : homéopathiques, vétérinaires (on en faisait autrefois des tisanes destinées à mettre les vaches en chaleur)[4], gynécologiques (décontracturantes)[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'impératoire possède diverses propriétés : homéopathiques, vétérinaires (on en faisait autrefois des tisanes destinées à mettre les vaches en chaleur), gynécologiques (décontracturantes).
 Au XVIIe siècle, l'impératoire, alors au sommet de sa réputation, entrait dans la composition d'une des drogues les plus en vogue en Europe, l'orviétan.
-L'impératoire a aussi un usage aromatique pour les boissons et les fromages, alimentaire (racine, feuilles), condimentaire[5] dans les salades ou les soupes[2].
-On extrait de la plante une huile essentielle nommée « huile de benjoin français »[5].
-L'infusion d'impératoire est apéritive[6].
-Dans plusieurs régions des Alpes, sa racine est distillée pour en tirer une eau-de-vie[7]</t>
+L'impératoire a aussi un usage aromatique pour les boissons et les fromages, alimentaire (racine, feuilles), condimentaire dans les salades ou les soupes.
+On extrait de la plante une huile essentielle nommée « huile de benjoin français ».
+L'infusion d'impératoire est apéritive.
+Dans plusieurs régions des Alpes, sa racine est distillée pour en tirer une eau-de-vie</t>
         </is>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Imp%C3%A9ratoire</t>
+          <t>Impératoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Imperatoria ostruthium L.
 Imperatoria major Gray</t>
